--- a/data/trans_camb/P16B18-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16B18-Clase-trans_camb.xlsx
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 20,31</t>
+          <t>-3,67; 20,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-23,25; 14,22</t>
+          <t>-22,95; 15,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 20,31</t>
+          <t>-3,67; 20,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-23,25; 14,22</t>
+          <t>-22,95; 15,23</t>
         </is>
       </c>
     </row>
@@ -725,22 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 29,78</t>
+          <t>-3,17; 29,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-25,1; 16,84</t>
+          <t>-24,72; 19,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 29,78</t>
+          <t>-3,17; 29,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-25,1; 16,84</t>
+          <t>-24,72; 19,22</t>
         </is>
       </c>
     </row>
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,25; 18,81</t>
+          <t>2,26; 18,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 13,97</t>
+          <t>-7,33; 13,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,25; 18,81</t>
+          <t>2,26; 18,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 13,97</t>
+          <t>-7,33; 13,87</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,3; 23,16</t>
+          <t>2,31; 22,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 16,26</t>
+          <t>-7,41; 16,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,3; 23,16</t>
+          <t>2,31; 22,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 16,26</t>
+          <t>-7,41; 16,12</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 47,73</t>
+          <t>-9,75; 47,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,7</t>
+          <t>0,0; 51,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 47,73</t>
+          <t>-9,75; 47,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,7</t>
+          <t>0,0; 51,52</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 97,04</t>
+          <t>-10,82; 95,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 168,05</t>
+          <t>0,0; 106,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 97,04</t>
+          <t>-10,82; 95,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 168,05</t>
+          <t>0,0; 106,25</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 9,71</t>
+          <t>-2,98; 9,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 5,38</t>
+          <t>-11,77; 5,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 9,71</t>
+          <t>-2,98; 9,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 5,38</t>
+          <t>-11,77; 5,51</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 10,84</t>
+          <t>-3,06; 10,74</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-11,91; 5,78</t>
+          <t>-11,82; 5,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 10,84</t>
+          <t>-3,06; 10,74</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,91; 5,78</t>
+          <t>-11,82; 5,95</t>
         </is>
       </c>
     </row>
@@ -1273,22 +1273,22 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,64; 24,2</t>
+          <t>2,82; 23,42</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 18,58</t>
+          <t>-7,78; 18,04</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,64; 24,2</t>
+          <t>2,82; 23,42</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 18,58</t>
+          <t>-7,78; 18,04</t>
         </is>
       </c>
     </row>
@@ -1349,22 +1349,22 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>2,71; 31,93</t>
+          <t>2,9; 30,58</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 22,92</t>
+          <t>-7,94; 22,55</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>2,71; 31,93</t>
+          <t>2,9; 30,58</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 22,92</t>
+          <t>-7,94; 22,55</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,75</t>
+          <t>0,57; 23,3</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2,58; 25,28</t>
+          <t>2,64; 23,75</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,75</t>
+          <t>0,57; 23,3</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,58; 25,28</t>
+          <t>2,64; 23,75</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,5</t>
+          <t>0,6; 30,39</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2,65; 33,84</t>
+          <t>2,71; 31,14</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,5</t>
+          <t>0,6; 30,39</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>2,65; 33,84</t>
+          <t>2,71; 31,14</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,84; 10,98</t>
+          <t>3,4; 11,15</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 9,69</t>
+          <t>-0,01; 9,35</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,84; 10,98</t>
+          <t>3,4; 11,15</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 9,69</t>
+          <t>-0,01; 9,35</t>
         </is>
       </c>
     </row>
@@ -1661,22 +1661,22 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>3,02; 12,67</t>
+          <t>3,61; 12,75</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 11,12</t>
+          <t>-0,05; 10,63</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>3,02; 12,67</t>
+          <t>3,61; 12,75</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 11,12</t>
+          <t>-0,05; 10,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B18-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16B18-Clase-trans_camb.xlsx
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
